--- a/data/long_bre/P24_8-Urba-long_bre.xlsx
+++ b/data/long_bre/P24_8-Urba-long_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H27"/>
+  <dimension ref="A1:J36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -523,6 +523,8 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -539,13 +541,15 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -567,17 +571,27 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M2-M1</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M3-M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4-M3</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5-M4</t>
         </is>
       </c>
     </row>
@@ -590,6 +604,8 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -599,37 +615,47 @@
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Menos diferencia negativa</t>
         </is>
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>8,85</t>
+          <t>9,09</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>4,51</t>
+          <t>4,53</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>4,73</t>
+          <t>4,95</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>70,04%</t>
+          <t>4,49</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>44,88%</t>
+          <t>71,79%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>43,69%</t>
+          <t>45,57%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>46,59%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>35,57%</t>
         </is>
       </c>
     </row>
@@ -642,32 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>3,41; 13,62</t>
+          <t>3,03; 13,71</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-0,08; 8,67</t>
+          <t>0,16; 8,99</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,4; 8,6</t>
+          <t>0,89; 8,59</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>20,4; 141,69</t>
+          <t>-1,0; 9,75</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-3,16; 104,98</t>
+          <t>16,2; 138,58</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>2,15; 98,34</t>
+          <t>0,93; 110,67</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>6,99; 99,81</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>-6,45; 99,5</t>
         </is>
       </c>
     </row>
@@ -675,37 +711,47 @@
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-12,05</t>
+          <t>-12,37</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-9,55</t>
+          <t>-9,81</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-12,67</t>
+          <t>-13,07</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-15,55%</t>
+          <t>-9,87</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-12,08%</t>
+          <t>-16,0%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-15,89%</t>
+          <t>-12,36%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>-16,33%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>-13,06%</t>
         </is>
       </c>
     </row>
@@ -718,32 +764,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-17,72; -5,68</t>
+          <t>-17,99; -6,06</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-15,81; -3,97</t>
+          <t>-15,51; -4,05</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-18,2; -7,28</t>
+          <t>-18,09; -7,14</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-22,35; -7,71</t>
+          <t>-17,43; -2,46</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-19,36; -5,21</t>
+          <t>-22,6; -8,1</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-21,97; -9,35</t>
+          <t>-19,18; -5,26</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>-21,96; -9,23</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>-22,05; -3,56</t>
         </is>
       </c>
     </row>
@@ -751,37 +807,47 @@
       <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Más Diferencia Positiva</t>
         </is>
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>3,2</t>
+          <t>3,28</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>5,04</t>
+          <t>5,28</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>7,94</t>
+          <t>8,13</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>32,38%</t>
+          <t>5,37</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>46,07%</t>
+          <t>32,66%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>83,88%</t>
+          <t>49,21%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>87,43%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>45,5%</t>
         </is>
       </c>
     </row>
@@ -794,74 +860,90 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-1,05; 7,15</t>
+          <t>-0,87; 7,26</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,53; 9,33</t>
+          <t>0,92; 9,77</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>3,93; 11,85</t>
+          <t>4,07; 12,02</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-9,36; 91,04</t>
+          <t>0,3; 11,14</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>3,92; 108,52</t>
+          <t>-7,66; 92,49</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>33,11; 156,84</t>
+          <t>7,64; 118,66</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>32,78; 157,28</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>-0,1; 121,25</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>Intermedio</t>
-        </is>
-      </c>
+      <c r="A10" s="1" t="n"/>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>9,47</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>9,24</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>1,43</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>86,73%</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>110,2%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>10,93%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -874,70 +956,94 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>4,29; 15,37</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>3,61; 14,13</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-4,06; 6,36</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>30,03; 173,2</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>33,87; 226,12</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-25,16; 64,33</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="n"/>
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Intermedio</t>
+        </is>
+      </c>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Menos diferencia negativa</t>
         </is>
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-15,71</t>
+          <t>9,09</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-11,21</t>
+          <t>9,47</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-6,52</t>
+          <t>1,26</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-19,05%</t>
+          <t>7,12</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-14,08%</t>
+          <t>75,72%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-8,69%</t>
+          <t>113,11%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>9,25%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>55,49%</t>
         </is>
       </c>
     </row>
@@ -950,32 +1056,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-22,46; -9,47</t>
+          <t>3,94; 15,27</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-18,4; -3,86</t>
+          <t>4,62; 14,39</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-12,95; -0,41</t>
+          <t>-4,75; 6,55</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-26,58; -11,74</t>
+          <t>0,1; 14,36</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-22,23; -5,35</t>
+          <t>25,98; 155,31</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-16,84; -0,71</t>
+          <t>44,27; 241,32</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>-28,38; 59,95</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>-1,45; 156,92</t>
         </is>
       </c>
     </row>
@@ -983,37 +1099,47 @@
       <c r="A14" s="1" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>6,24</t>
+          <t>-15,65</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>1,97</t>
+          <t>-11,19</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>5,09</t>
+          <t>-6,56</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>94,98%</t>
+          <t>-12,37</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>16,44%</t>
+          <t>-19,31%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>42,7%</t>
+          <t>-14,1%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>-8,83%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>-16,76%</t>
         </is>
       </c>
     </row>
@@ -1026,74 +1152,90 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>1,99; 10,26</t>
+          <t>-21,76; -8,75</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-3,81; 8,14</t>
+          <t>-17,93; -4,12</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0,6; 10,17</t>
+          <t>-13,24; 0,42</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>22,66; 208,29</t>
+          <t>-20,42; -3,86</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-28,48; 95,38</t>
+          <t>-26,3; -11,1</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>3,44; 106,92</t>
+          <t>-21,66; -5,36</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>-17,05; 0,39</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>-26,36; -5,74</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>Rural</t>
-        </is>
-      </c>
+      <c r="A16" s="1" t="n"/>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Más Diferencia Positiva</t>
         </is>
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>1,8</t>
+          <t>6,56</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>4,0</t>
+          <t>1,72</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>5,98</t>
+          <t>5,3</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>12,98%</t>
+          <t>5,24</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>52,31%</t>
+          <t>94,15%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>63,82%</t>
+          <t>14,04%</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>43,61%</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>39,11%</t>
         </is>
       </c>
     </row>
@@ -1106,32 +1248,42 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-21,75; 12,28</t>
+          <t>1,7; 11,21</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-5,27; 12,2</t>
+          <t>-4,02; 7,5</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-2,57; 14,42</t>
+          <t>0,76; 10,38</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-70,05; 196,08</t>
+          <t>-1,5; 11,19</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-47,21; 379,31</t>
+          <t>16,87; 218,71</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-21,37; 254,82</t>
+          <t>-27,83; 79,2</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>3,27; 102,53</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>-10,87; 99,79</t>
         </is>
       </c>
     </row>
@@ -1139,37 +1291,47 @@
       <c r="A18" s="1" t="n"/>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-6,9</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-13,38</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-14,6</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>-8,75%</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>-16,14%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-18,05%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1182,70 +1344,94 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-20,54; 12,63</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-24,97; -1,74</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-25,68; -3,12</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-23,65; 19,05</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-28,96; -2,15</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-30,46; -4,47</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="n"/>
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Rural</t>
+        </is>
+      </c>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Menos diferencia negativa</t>
         </is>
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>5,1</t>
+          <t>-1,06</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>9,37</t>
+          <t>3,95</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>8,62</t>
+          <t>5,57</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>70,67%</t>
+          <t>13,11</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>98,9%</t>
+          <t>-6,49%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>88,07%</t>
+          <t>50,75%</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>56,7%</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>135,38%</t>
         </is>
       </c>
     </row>
@@ -1258,74 +1444,90 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-3,04; 13,45</t>
+          <t>-24,89; 11,09</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>0,37; 20,54</t>
+          <t>-5,3; 11,71</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-1,39; 17,13</t>
+          <t>-2,75; 14,26</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-31,29; 381,52</t>
+          <t>0,74; 25,02</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-5,44; 327,08</t>
+          <t>-76,11; 173,13</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-16,08; 272,75</t>
+          <t>-46,01; 297,15</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>-24,66; 258,36</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>-5,76; 629,18</t>
         </is>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="A22" s="1" t="n"/>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>8,3</t>
+          <t>-3,9</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>6,32</t>
+          <t>-12,68</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>3,58</t>
+          <t>-13,54</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>68,56%</t>
+          <t>-6,29</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>69,56%</t>
+          <t>-5,16%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>31,01%</t>
+          <t>-15,43%</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>-16,89%</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>-9,1%</t>
         </is>
       </c>
     </row>
@@ -1338,32 +1540,42 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>3,68; 11,39</t>
+          <t>-16,79; 18,0</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>3,53; 9,36</t>
+          <t>-24,45; 0,67</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>0,21; 6,62</t>
+          <t>-25,51; -3,01</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>22,47; 110,69</t>
+          <t>-24,33; 21,67</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>32,86; 126,1</t>
+          <t>-19,85; 32,95</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>0,84; 65,9</t>
+          <t>-28,42; 0,27</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>-30,16; -3,84</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>-30,6; 44,96</t>
         </is>
       </c>
     </row>
@@ -1371,37 +1583,47 @@
       <c r="A24" s="1" t="n"/>
       <c r="B24" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Más Diferencia Positiva</t>
         </is>
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>-12,96</t>
+          <t>4,96</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>-10,67</t>
+          <t>8,73</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>-10,46</t>
+          <t>7,98</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>-16,26%</t>
+          <t>-6,82</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>-13,38%</t>
+          <t>61,8%</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>-13,42%</t>
+          <t>86,61%</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>79,83%</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>-32,11%</t>
         </is>
       </c>
     </row>
@@ -1414,32 +1636,42 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-16,59; -7,14</t>
+          <t>-4,04; 13,61</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-14,67; -6,39</t>
+          <t>-0,99; 19,02</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-14,39; -6,4</t>
+          <t>-1,32; 16,98</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-20,58; -9,51</t>
+          <t>-38,93; 8,95</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-18,17; -8,39</t>
+          <t>-34,77; 336,97</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-18,01; -8,17</t>
+          <t>-15,55; 319,46</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>-14,34; 289,33</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>-86,29; 106,4</t>
         </is>
       </c>
     </row>
@@ -1447,37 +1679,47 @@
       <c r="A26" s="1" t="n"/>
       <c r="B26" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>4,66</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>4,35</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>6,88</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>56,72%</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>38,92%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>65,63%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1490,44 +1732,449 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>1,82; 7,45</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>0,7; 7,56</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>4,09; 10,23</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>17,39; 106,96</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>4,97; 79,35</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>33,26; 118,01</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B28" s="3" t="inlineStr">
+        <is>
+          <t>Menos diferencia negativa</t>
+        </is>
+      </c>
+      <c r="C28" s="2" t="inlineStr">
+        <is>
+          <t>7,9</t>
+        </is>
+      </c>
+      <c r="D28" s="2" t="inlineStr">
+        <is>
+          <t>6,4</t>
+        </is>
+      </c>
+      <c r="E28" s="2" t="inlineStr">
+        <is>
+          <t>3,56</t>
+        </is>
+      </c>
+      <c r="F28" s="2" t="inlineStr">
+        <is>
+          <t>6,51</t>
+        </is>
+      </c>
+      <c r="G28" s="2" t="inlineStr">
+        <is>
+          <t>61,48%</t>
+        </is>
+      </c>
+      <c r="H28" s="2" t="inlineStr">
+        <is>
+          <t>70,8%</t>
+        </is>
+      </c>
+      <c r="I28" s="2" t="inlineStr">
+        <is>
+          <t>30,44%</t>
+        </is>
+      </c>
+      <c r="J28" s="2" t="inlineStr">
+        <is>
+          <t>52,65%</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n"/>
+      <c r="B29" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C29" s="2" t="inlineStr">
+        <is>
+          <t>3,06; 11,63</t>
+        </is>
+      </c>
+      <c r="D29" s="2" t="inlineStr">
+        <is>
+          <t>3,27; 9,33</t>
+        </is>
+      </c>
+      <c r="E29" s="2" t="inlineStr">
+        <is>
+          <t>0,54; 6,64</t>
+        </is>
+      </c>
+      <c r="F29" s="2" t="inlineStr">
+        <is>
+          <t>2,41; 10,83</t>
+        </is>
+      </c>
+      <c r="G29" s="2" t="inlineStr">
+        <is>
+          <t>17,99; 109,02</t>
+        </is>
+      </c>
+      <c r="H29" s="2" t="inlineStr">
+        <is>
+          <t>28,6; 120,0</t>
+        </is>
+      </c>
+      <c r="I29" s="2" t="inlineStr">
+        <is>
+          <t>3,5; 66,82</t>
+        </is>
+      </c>
+      <c r="J29" s="2" t="inlineStr">
+        <is>
+          <t>16,48; 108,01</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n"/>
+      <c r="B30" s="3" t="inlineStr">
+        <is>
+          <t>Igual diferencia Cero</t>
+        </is>
+      </c>
+      <c r="C30" s="2" t="inlineStr">
+        <is>
+          <t>-12,71</t>
+        </is>
+      </c>
+      <c r="D30" s="2" t="inlineStr">
+        <is>
+          <t>-10,69</t>
+        </is>
+      </c>
+      <c r="E30" s="2" t="inlineStr">
+        <is>
+          <t>-10,54</t>
+        </is>
+      </c>
+      <c r="F30" s="2" t="inlineStr">
+        <is>
+          <t>-10,35</t>
+        </is>
+      </c>
+      <c r="G30" s="2" t="inlineStr">
+        <is>
+          <t>-16,17%</t>
+        </is>
+      </c>
+      <c r="H30" s="2" t="inlineStr">
+        <is>
+          <t>-13,41%</t>
+        </is>
+      </c>
+      <c r="I30" s="2" t="inlineStr">
+        <is>
+          <t>-13,55%</t>
+        </is>
+      </c>
+      <c r="J30" s="2" t="inlineStr">
+        <is>
+          <t>-13,98%</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n"/>
+      <c r="B31" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C31" s="2" t="inlineStr">
+        <is>
+          <t>-16,77; -7,91</t>
+        </is>
+      </c>
+      <c r="D31" s="2" t="inlineStr">
+        <is>
+          <t>-14,95; -6,55</t>
+        </is>
+      </c>
+      <c r="E31" s="2" t="inlineStr">
+        <is>
+          <t>-14,21; -6,77</t>
+        </is>
+      </c>
+      <c r="F31" s="2" t="inlineStr">
+        <is>
+          <t>-16,22; -4,91</t>
+        </is>
+      </c>
+      <c r="G31" s="2" t="inlineStr">
+        <is>
+          <t>-20,68; -10,34</t>
+        </is>
+      </c>
+      <c r="H31" s="2" t="inlineStr">
+        <is>
+          <t>-18,46; -8,42</t>
+        </is>
+      </c>
+      <c r="I31" s="2" t="inlineStr">
+        <is>
+          <t>-17,9; -9,0</t>
+        </is>
+      </c>
+      <c r="J31" s="2" t="inlineStr">
+        <is>
+          <t>-20,83; -6,82</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n"/>
+      <c r="B32" s="3" t="inlineStr">
+        <is>
+          <t>Más Diferencia Positiva</t>
+        </is>
+      </c>
+      <c r="C32" s="2" t="inlineStr">
+        <is>
+          <t>4,8</t>
+        </is>
+      </c>
+      <c r="D32" s="2" t="inlineStr">
+        <is>
+          <t>4,29</t>
+        </is>
+      </c>
+      <c r="E32" s="2" t="inlineStr">
+        <is>
+          <t>6,97</t>
+        </is>
+      </c>
+      <c r="F32" s="2" t="inlineStr">
+        <is>
+          <t>3,85</t>
+        </is>
+      </c>
+      <c r="G32" s="2" t="inlineStr">
+        <is>
+          <t>56,13%</t>
+        </is>
+      </c>
+      <c r="H32" s="2" t="inlineStr">
+        <is>
+          <t>38,06%</t>
+        </is>
+      </c>
+      <c r="I32" s="2" t="inlineStr">
+        <is>
+          <t>66,24%</t>
+        </is>
+      </c>
+      <c r="J32" s="2" t="inlineStr">
+        <is>
+          <t>28,31%</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n"/>
+      <c r="B33" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C33" s="2" t="inlineStr">
+        <is>
+          <t>1,89; 7,57</t>
+        </is>
+      </c>
+      <c r="D33" s="2" t="inlineStr">
+        <is>
+          <t>0,95; 7,76</t>
+        </is>
+      </c>
+      <c r="E33" s="2" t="inlineStr">
+        <is>
+          <t>4,12; 9,85</t>
+        </is>
+      </c>
+      <c r="F33" s="2" t="inlineStr">
+        <is>
+          <t>-0,88; 8,15</t>
+        </is>
+      </c>
+      <c r="G33" s="2" t="inlineStr">
+        <is>
+          <t>19,57; 105,21</t>
+        </is>
+      </c>
+      <c r="H33" s="2" t="inlineStr">
+        <is>
+          <t>7,27; 80,81</t>
+        </is>
+      </c>
+      <c r="I33" s="2" t="inlineStr">
+        <is>
+          <t>33,09; 105,77</t>
+        </is>
+      </c>
+      <c r="J33" s="2" t="inlineStr">
+        <is>
+          <t>-5,92; 72,46</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n"/>
+      <c r="B34" s="3" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="C34" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="D34" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="E34" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="F34" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="G34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n"/>
+      <c r="B35" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="A22:A27"/>
-    <mergeCell ref="A4:A9"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="A16:A21"/>
-    <mergeCell ref="A10:A15"/>
+    <mergeCell ref="A4:A11"/>
+    <mergeCell ref="A12:A19"/>
+    <mergeCell ref="A20:A27"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A28:A35"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
